--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 7 (0, 12, 11, 17, 44)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(0, 12, 11, 17, 44)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0007018705608748877</v>
+        <v>0.0007018076591000852</v>
       </c>
       <c r="E2">
-        <v>0.0007018705608748877</v>
+        <v>0.0007018076591000852</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9581811633631343</v>
+        <v>0.9581194954748646</v>
       </c>
       <c r="E3">
-        <v>0.9581811633631343</v>
+        <v>0.9581194954748646</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8.536673347880374E-05</v>
+        <v>8.540584901100519E-05</v>
       </c>
       <c r="E4">
-        <v>8.536673347880374E-05</v>
+        <v>8.540584901100519E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.369242905018464E-07</v>
+        <v>1.367006494339108E-07</v>
       </c>
       <c r="E5">
-        <v>1.369242905018464E-07</v>
+        <v>1.367006494339108E-07</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1786849919428139</v>
+        <v>0.1784996208733365</v>
       </c>
       <c r="E6">
-        <v>0.1786849919428139</v>
+        <v>0.1784996208733365</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9985885672666877</v>
+        <v>0.9728231196496859</v>
       </c>
       <c r="E7">
-        <v>0.001411432733312346</v>
+        <v>0.02717688035031407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9984562288490636</v>
+        <v>0.0001245355230851506</v>
       </c>
       <c r="E8">
-        <v>0.001543771150936402</v>
+        <v>0.9998754644769149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9982575034121437</v>
+        <v>6.688183016069859E-05</v>
       </c>
       <c r="E9">
-        <v>0.001742496587856301</v>
+        <v>0.9999331181698393</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9984918222389622</v>
+        <v>0.103599041923544</v>
       </c>
       <c r="E10">
-        <v>0.001508177761037843</v>
+        <v>0.896400958076456</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9985161082949807</v>
+        <v>3.675190955152106E-05</v>
       </c>
       <c r="E11">
-        <v>0.00148389170501928</v>
+        <v>0.9999632480904485</v>
       </c>
       <c r="F11">
-        <v>0.3379741013050079</v>
+        <v>3.447994947433472</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>3.048334128634811E-07</v>
+        <v>3.04118327605434E-07</v>
       </c>
       <c r="E12">
-        <v>3.048334128634811E-07</v>
+        <v>3.04118327605434E-07</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9952874664135661</v>
+        <v>0.9953023132390378</v>
       </c>
       <c r="E13">
-        <v>0.9952874664135661</v>
+        <v>0.9953023132390378</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3.703738792840018E-05</v>
+        <v>3.708685082327059E-05</v>
       </c>
       <c r="E14">
-        <v>3.703738792840018E-05</v>
+        <v>3.708685082327059E-05</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.082567488878711E-10</v>
+        <v>1.076239516145161E-10</v>
       </c>
       <c r="E15">
-        <v>1.082567488878711E-10</v>
+        <v>1.076239516145161E-10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.09136732970776112</v>
+        <v>0.09142299564742942</v>
       </c>
       <c r="E16">
-        <v>0.09136732970776112</v>
+        <v>0.09142299564742942</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.998863278739314</v>
+        <v>0.9712806692736689</v>
       </c>
       <c r="E17">
-        <v>0.00113672126068598</v>
+        <v>0.02871933072633115</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9985778258771302</v>
+        <v>1.694043086397785E-07</v>
       </c>
       <c r="E18">
-        <v>0.001422174122869824</v>
+        <v>0.9999998305956913</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9985685207537274</v>
+        <v>6.290077407956476E-06</v>
       </c>
       <c r="E19">
-        <v>0.001431479246272627</v>
+        <v>0.9999937099225921</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9986078073353368</v>
+        <v>0.3351822036917832</v>
       </c>
       <c r="E20">
-        <v>0.001392192664663172</v>
+        <v>0.6648177963082168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9986133699433188</v>
+        <v>4.051695403488507E-08</v>
       </c>
       <c r="E21">
-        <v>0.00138663005668116</v>
+        <v>0.999999959483046</v>
       </c>
       <c r="F21">
-        <v>0.5460155010223389</v>
+        <v>5.116787910461426</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
